--- a/11th Feb Batch/Ntile Window Function.xlsx
+++ b/11th Feb Batch/Ntile Window Function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785BBEBE-38AE-4A8C-B093-4045D85FA3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDA0B6-6928-4934-8848-78CB72CB7C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Product Name</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>2 Buckets based on priced</t>
+  </si>
+  <si>
+    <t>samsung s21</t>
+  </si>
+  <si>
+    <t>samsung s22</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>samsung</t>
   </si>
 </sst>
 </file>
@@ -117,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +427,7 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -433,7 +446,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -441,7 +454,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,7 +462,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -457,20 +470,108 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>18000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>120000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>95000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>90000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
